--- a/[TEC]/#09 Entramado Errores/Paridad.xlsx
+++ b/[TEC]/#09 Entramado Errores/Paridad.xlsx
@@ -16,16 +16,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Dígito</t>
+    <t>Dig</t>
+  </si>
+  <si>
+    <t>Bin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -35,17 +38,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DejaVuSansMono Nerd Font"/>
+      <family val="3"/>
+    </font>
+    <font>
       <sz val="22"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-      <scheme val="minor"/>
+      <name val="DejaVuSansMono Nerd Font"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="15"/>
       <color theme="1"/>
-      <name val="Consolas"/>
+      <name val="DejaVuSansMono Nerd Font"/>
       <family val="3"/>
     </font>
   </fonts>
@@ -81,12 +88,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -95,37 +117,37 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -432,7 +454,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection sqref="A1:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,65 +462,68 @@
     <col min="1" max="6" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
+    <row r="1" spans="1:6" ht="27.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
         <v>8</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="2">
         <v>4</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="2">
         <v>2</v>
       </c>
-      <c r="F1" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="str">
+      <c r="F1" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="27.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="str">
         <f>DEC2BIN(A2)</f>
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="1" t="str">
         <f t="shared" ref="B3:B10" si="0">DEC2BIN(A3)</f>
         <v>10</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
       <c r="E3" s="7">
         <v>1</v>
       </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
@@ -506,72 +531,72 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="4"/>
       <c r="D5" s="9">
         <v>1</v>
       </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="27.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="9">
         <v>1</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>0</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:6" ht="27.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="9">
         <v>1</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>
       </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="27.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="9">
         <v>1</v>
       </c>
@@ -582,42 +607,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
       <c r="C9" s="11">
         <v>1</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="27.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="str">
+      <c r="B10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>1001</v>
       </c>
       <c r="C10" s="11">
         <v>1</v>
       </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
         <v>0</v>
       </c>
       <c r="F10" s="5">
